--- a/input data/var_recoding.xlsx
+++ b/input data/var_recoding.xlsx
@@ -897,7 +897,7 @@
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
@@ -2213,11 +2213,11 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.53"/>

--- a/input data/var_recoding.xlsx
+++ b/input data/var_recoding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="prev_visits" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="223">
   <si>
     <t xml:space="preserve">old_var</t>
   </si>
@@ -480,6 +480,27 @@
   </si>
   <si>
     <t xml:space="preserve">ab_quant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treat_steroids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treat_antiinfec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macrolides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treat_macrolides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treat_antiplat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treat_anticoag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treat_immunosuppr</t>
   </si>
   <si>
     <t xml:space="preserve">comments</t>
@@ -893,11 +914,11 @@
   </sheetPr>
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
@@ -2188,9 +2209,107 @@
         <v>11</v>
       </c>
     </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
@@ -2213,11 +2332,11 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.53"/>
@@ -2242,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,15 +2375,15 @@
         <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -2272,16 +2391,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>9</v>
@@ -2376,7 +2495,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>140</v>
@@ -2393,10 +2512,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>22</v>
@@ -2410,7 +2529,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>130</v>
@@ -2427,10 +2546,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>22</v>
@@ -2453,7 +2572,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>9</v>
@@ -2461,7 +2580,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>138</v>
@@ -2495,7 +2614,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>127</v>
@@ -2512,7 +2631,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>128</v>
@@ -2589,7 +2708,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>40</v>
@@ -2690,7 +2809,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>49</v>
@@ -2780,10 +2899,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>11</v>
@@ -2791,10 +2910,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>11</v>
@@ -2802,10 +2921,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>11</v>
@@ -2813,10 +2932,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>11</v>
@@ -2824,10 +2943,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>11</v>
@@ -2835,10 +2954,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>11</v>
@@ -2846,10 +2965,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>56</v>
@@ -2863,10 +2982,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>11</v>
@@ -2874,10 +2993,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>11</v>
@@ -2885,10 +3004,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>11</v>
@@ -2899,7 +3018,7 @@
         <v>145</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>11</v>
@@ -2907,10 +3026,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>11</v>
@@ -2918,10 +3037,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>11</v>
@@ -2929,10 +3048,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>11</v>
@@ -2940,10 +3059,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>11</v>
@@ -2951,10 +3070,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>11</v>
@@ -2962,10 +3081,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>56</v>
@@ -2979,10 +3098,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>11</v>
@@ -2990,10 +3109,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>56</v>
@@ -3007,10 +3126,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>11</v>
@@ -3018,10 +3137,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>11</v>
@@ -3029,7 +3148,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>64</v>
@@ -3054,7 +3173,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>67</v>
@@ -3079,7 +3198,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>70</v>
@@ -3104,7 +3223,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>72</v>
@@ -3115,7 +3234,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>73</v>
@@ -3126,7 +3245,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>74</v>
@@ -3137,7 +3256,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>76</v>
@@ -3154,7 +3273,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>77</v>
@@ -3165,7 +3284,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>79</v>
@@ -3182,7 +3301,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>80</v>
@@ -3193,7 +3312,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>81</v>
@@ -3210,7 +3329,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>82</v>
@@ -3221,7 +3340,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>83</v>
@@ -3238,7 +3357,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>84</v>
@@ -3249,7 +3368,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>85</v>
@@ -3266,7 +3385,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>86</v>
@@ -3277,7 +3396,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>88</v>
@@ -3311,7 +3430,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>92</v>
@@ -3328,10 +3447,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>11</v>
@@ -3339,7 +3458,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>148</v>
@@ -3350,7 +3469,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>149</v>
@@ -3367,7 +3486,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>150</v>
